--- a/n of 1/Others n of 1/VO2max_Others/FASTERnn_Zach_Bitter_VO2max/Zach_Bitter_VO2max.xlsx
+++ b/n of 1/Others n of 1/VO2max_Others/FASTERnn_Zach_Bitter_VO2max/Zach_Bitter_VO2max.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="12435" windowHeight="12075"/>
+    <workbookView xWindow="195" yWindow="1125" windowWidth="19140" windowHeight="10680" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="VO2max_Fat" sheetId="1" r:id="rId1"/>
+    <sheet name="Fat_VO2max" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>% VO2 Max</t>
   </si>
@@ -26,12 +25,15 @@
   <si>
     <t>Carb Usage</t>
   </si>
+  <si>
+    <t>Eqn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +49,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -56,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -79,11 +88,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -94,9 +119,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -123,6 +160,33 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Zach Bitter </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>VO2max vs %Fat Oxidized</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -137,11 +201,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>VO2max_Fat!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>% VO2 Max</c:v>
+                  <c:v>Fat Usage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -152,22 +216,46 @@
             </a:ln>
           </c:spPr>
           <c:trendline>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.2723097112860892E-3"/>
-                  <c:y val="4.338546223388743E-2"/>
+                  <c:x val="-0.2888018224775043"/>
+                  <c:y val="-3.1836237861571651E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </c:spPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>VO2max_Fat!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VO2max_Fat!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -179,24 +267,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -211,43 +281,332 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="51491200"/>
-        <c:axId val="51473024"/>
+        <c:axId val="55909760"/>
+        <c:axId val="43857024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51491200"/>
+        <c:axId val="55909760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent VO2max</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51473024"/>
+        <c:crossAx val="43857024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51473024"/>
+        <c:axId val="43857024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent Fat</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51491200"/>
+        <c:crossAx val="55909760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Zach</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Bitter</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>%Fat vs </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>% VO2Max</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.59786210083997982"/>
+          <c:y val="6.535947712418301E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fat_VO2max!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% VO2 Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.38301112199424181"/>
+                  <c:y val="-9.9978179198188466E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fat_VO2max!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fat_VO2max!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="124159104"/>
+        <c:axId val="124149120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="124159104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>%Fat Usage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124149120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="124149120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>%VO2max</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124159104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -267,16 +626,51 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>371474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -585,66 +979,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.75</v>
+      </c>
       <c r="B2" s="2">
         <v>0.98</v>
       </c>
       <c r="C2" s="2">
         <v>0.02</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.75</v>
-      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.84</v>
+      </c>
       <c r="B3" s="2">
         <v>0.76</v>
       </c>
       <c r="C3" s="2">
         <v>0.24</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.84</v>
-      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.96</v>
+      </c>
       <c r="B4" s="2">
         <v>0.23</v>
       </c>
       <c r="C4" s="2">
         <v>0.77</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.96</v>
-      </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D6">
-        <f>-(0.2701*B6)+1.0274</f>
-        <v>0.89235000000000009</v>
-      </c>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -654,24 +1046,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C2" s="6">
+        <f>(-0.2436*A2*A2)+(0.0147*A2)+0.9695</f>
+        <v>0.7499525600000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C6" si="0">(-0.2436*A3*A3)+(0.0147*A3)+0.9695</f>
+        <v>0.83996863999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95999456000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91595000000000004</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>